--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603214\Documents\UiPath\Intel Process\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603214\Documents\UiPath\Global Foundries Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4442308E-5E61-4E5F-8425-F1C12BA39B5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F09ABF-B425-4473-8873-CF1D066CB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -168,15 +168,6 @@
     <t>Correct</t>
   </si>
   <si>
-    <t>Config_INTEL_Manual_Login</t>
-  </si>
-  <si>
-    <t>Config_INTEL_Continue</t>
-  </si>
-  <si>
-    <t>INTEL_File_Ready</t>
-  </si>
-  <si>
     <t>DelayBefore</t>
   </si>
   <si>
@@ -195,43 +186,52 @@
     <t>RetryInterval</t>
   </si>
   <si>
+    <t>Config_TSI_ReRun</t>
+  </si>
+  <si>
+    <t>BusinessConfigNotificationEmailSubject</t>
+  </si>
+  <si>
+    <t>BusinessConfigNotificationEmailBody</t>
+  </si>
+  <si>
+    <t>BusinessConfigNotificationEmaiSender</t>
+  </si>
+  <si>
+    <t>BusinessConfigNotificationEmailRecipientsList</t>
+  </si>
+  <si>
+    <t>BusinessConfigNotificationEmailRecipientsCCList</t>
+  </si>
+  <si>
+    <t>BusinessConfigNotificationEmailSenderName</t>
+  </si>
+  <si>
+    <t>Business Config File is missing or Not able to read Business Config File</t>
+  </si>
+  <si>
+    <t>maheshwari.raj@tel.com</t>
+  </si>
+  <si>
+    <t>Raj Maheshwari</t>
+  </si>
+  <si>
+    <t>rajat.lal@innowise.us</t>
+  </si>
+  <si>
+    <t>Config_GF_Manual_Login</t>
+  </si>
+  <si>
+    <t>Config_GF_Continue</t>
+  </si>
+  <si>
+    <t>GF_File_Ready</t>
+  </si>
+  <si>
+    <t>Issue Occurred in GF Process</t>
+  </si>
+  <si>
     <t>00:00:03</t>
-  </si>
-  <si>
-    <t>Config_TSI_ReRun</t>
-  </si>
-  <si>
-    <t>BusinessConfigNotificationEmailSubject</t>
-  </si>
-  <si>
-    <t>Issue Occurred in INTEL Process</t>
-  </si>
-  <si>
-    <t>BusinessConfigNotificationEmailBody</t>
-  </si>
-  <si>
-    <t>BusinessConfigNotificationEmaiSender</t>
-  </si>
-  <si>
-    <t>BusinessConfigNotificationEmailRecipientsList</t>
-  </si>
-  <si>
-    <t>BusinessConfigNotificationEmailRecipientsCCList</t>
-  </si>
-  <si>
-    <t>BusinessConfigNotificationEmailSenderName</t>
-  </si>
-  <si>
-    <t>Business Config File is missing or Not able to read Business Config File</t>
-  </si>
-  <si>
-    <t>maheshwari.raj@tel.com</t>
-  </si>
-  <si>
-    <t>Raj Maheshwari</t>
-  </si>
-  <si>
-    <t>rajat.lal@innowise.us</t>
   </si>
 </sst>
 </file>
@@ -295,10 +295,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -703,50 +703,50 @@
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
         <v>60</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" t="s">
         <v>61</v>
-      </c>
-      <c r="B9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="14.25" customHeight="1">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1746,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -1930,31 +1930,31 @@
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5"/>
     </row>
     <row r="19" spans="1:3" ht="14.25" customHeight="1">
       <c r="A19" s="5" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5"/>
     </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" s="5" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="B20" s="5"/>
     </row>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" s="5" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B21" s="5"/>
     </row>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5">
         <v>4000</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="5">
         <v>5000</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="5">
         <v>15000</v>
@@ -1978,7 +1978,7 @@
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="5">
         <v>5000</v>
@@ -1986,7 +1986,7 @@
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1">
       <c r="A26" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="5">
         <v>3</v>
@@ -1994,10 +1994,10 @@
     </row>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
@@ -2964,6 +2964,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\603214\Documents\UiPath\Global Foundries Process\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F09ABF-B425-4473-8873-CF1D066CB9A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B00360BF-82A7-489D-8A10-BC06ED704DAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>00:00:03</t>
+  </si>
+  <si>
+    <t>ShareDrive_DownloadedFlatFileFolderPath</t>
+  </si>
+  <si>
+    <t>GF_ShareDriveDownloadedFlatFileFolderPath</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
@@ -2972,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -3020,7 +3026,14 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
